--- a/SiteStatusProject.xlsx
+++ b/SiteStatusProject.xlsx
@@ -17,8 +17,8 @@
     <sheet name="S32 Mine1" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="S32 Worsley alumina" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="S32 Worsley alumina1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="BHP Area C" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="BHP Area C1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="BHP area C" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="BHP area C1" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Minera Centinela" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Minera Centinela1" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="BHP San Manuel" sheetId="16" state="visible" r:id="rId16"/>
@@ -26,33 +26,13 @@
     <sheet name="Vale NC1" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="Vale NC11" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">SiteStatusProject!$A$1:$F$257</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>T</t>
   </si>
@@ -72,7 +52,49 @@
     <t>Fail key reason</t>
   </si>
   <si>
+    <t xml:space="preserve">Site Status Flight Mission – Video </t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>FAB 28</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>S32 Worsley alumina</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Site status Flight Mission – mapping</t>
+  </si>
+  <si>
+    <t>Haifa Bay Port</t>
+  </si>
+  <si>
+    <t>Canceled due to PM's consideration</t>
+  </si>
+  <si>
+    <t>S32 Mine</t>
+  </si>
+  <si>
+    <t>System related</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Vale NC1</t>
+  </si>
+  <si>
+    <t>BHP area C</t>
+  </si>
+  <si>
+    <t>Weather</t>
   </si>
   <si>
     <t>Postponed</t>
@@ -81,58 +103,16 @@
     <t>BHP San Manuel</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>Client related reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Site Status Flight Mission – Video </t>
+    <t>Human error</t>
   </si>
   <si>
     <t>Open</t>
   </si>
   <si>
-    <t>S32 Worsley alumina</t>
-  </si>
-  <si>
-    <t>S32 Mine</t>
-  </si>
-  <si>
-    <t>BHP area C</t>
-  </si>
-  <si>
     <t>Newcrest - Cadia</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Vale NC1</t>
-  </si>
-  <si>
-    <t>Human error</t>
-  </si>
-  <si>
-    <t>System related</t>
-  </si>
-  <si>
-    <t>FAB 28</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Haifa Bay Port</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t>Client related reason</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Canceled due to PM's consideration</t>
   </si>
   <si>
     <t>Amount</t>
@@ -145,6 +125,9 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>16/05</t>
   </si>
   <si>
     <t>17/05</t>
@@ -196,7 +179,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="dd/mmm/yyyy\ hh:mm" numFmtId="164"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -247,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -258,10 +243,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -582,12 +564,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'FAB 28'!$A$5:$A$13</f>
+              <f>'FAB 28'!$A$5:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'FAB 28'!$B$5:$B$13</f>
+              <f>'FAB 28'!$B$5:$B$14</f>
             </numRef>
           </val>
         </ser>
@@ -614,12 +596,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'FAB 28'!$A$5:$A$13</f>
+              <f>'FAB 28'!$A$5:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'FAB 28'!$C$5:$C$13</f>
+              <f>'FAB 28'!$C$5:$C$14</f>
             </numRef>
           </val>
         </ser>
@@ -1239,12 +1221,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'All sites'!$A$5:$A$13</f>
+              <f>'All sites'!$A$5:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'All sites'!$B$5:$B$13</f>
+              <f>'All sites'!$B$5:$B$14</f>
             </numRef>
           </val>
         </ser>
@@ -1271,12 +1253,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'All sites'!$A$5:$A$13</f>
+              <f>'All sites'!$A$5:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'All sites'!$C$5:$C$13</f>
+              <f>'All sites'!$C$5:$C$14</f>
             </numRef>
           </val>
         </ser>
@@ -1822,7 +1804,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'BHP Area C'!B1</f>
+              <f>'BHP area C'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1832,12 +1814,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'BHP Area C'!$A$2:$A$3</f>
+              <f>'BHP area C'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'BHP Area C'!$B$2:$B$3</f>
+              <f>'BHP area C'!$B$2:$B$3</f>
             </numRef>
           </val>
         </ser>
@@ -1927,7 +1909,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'BHP Area C'!B4</f>
+              <f>'BHP area C'!B4</f>
             </strRef>
           </tx>
           <spPr>
@@ -1945,12 +1927,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'BHP Area C'!$A$5</f>
+              <f>'BHP area C'!$A$5:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'BHP Area C'!$B$5</f>
+              <f>'BHP area C'!$B$5:$B$13</f>
             </numRef>
           </val>
         </ser>
@@ -1959,7 +1941,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'BHP Area C'!C4</f>
+              <f>'BHP area C'!C4</f>
             </strRef>
           </tx>
           <spPr>
@@ -1977,12 +1959,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'BHP Area C'!$A$5</f>
+              <f>'BHP area C'!$A$5:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'BHP Area C'!$C$5</f>
+              <f>'BHP area C'!$C$5:$C$13</f>
             </numRef>
           </val>
         </ser>
@@ -2060,7 +2042,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'BHP Area C1'!B1</f>
+              <f>'BHP area C1'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2070,12 +2052,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'BHP Area C1'!$A$2:$A$5</f>
+              <f>'BHP area C1'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'BHP Area C1'!$B$2:$B$5</f>
+              <f>'BHP area C1'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -2117,7 +2099,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'BHP Area C1'!B6</f>
+              <f>'BHP area C1'!B6</f>
             </strRef>
           </tx>
           <spPr>
@@ -2127,12 +2109,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'BHP Area C1'!$A$7:$A$9</f>
+              <f>'BHP area C1'!$A$7:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'BHP Area C1'!$B$7:$B$9</f>
+              <f>'BHP area C1'!$B$7:$B$9</f>
             </numRef>
           </val>
         </ser>
@@ -2231,7 +2213,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'BHP Area C1'!B10</f>
+              <f>'BHP area C1'!B10</f>
             </strRef>
           </tx>
           <spPr>
@@ -2241,12 +2223,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'BHP Area C1'!$A$11:$A$14</f>
+              <f>'BHP area C1'!$A$11:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'BHP Area C1'!$B$11:$B$14</f>
+              <f>'BHP area C1'!$B$11:$B$14</f>
             </numRef>
           </val>
         </ser>
@@ -3289,12 +3271,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Vale NC1'!$A$5:$A$7</f>
+              <f>'Vale NC1'!$A$5:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Vale NC1'!$B$5:$B$7</f>
+              <f>'Vale NC1'!$B$5:$B$8</f>
             </numRef>
           </val>
         </ser>
@@ -3321,12 +3303,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Vale NC1'!$A$5:$A$7</f>
+              <f>'Vale NC1'!$A$5:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Vale NC1'!$C$5:$C$7</f>
+              <f>'Vale NC1'!$C$5:$C$8</f>
             </numRef>
           </val>
         </ser>
@@ -3756,12 +3738,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Haifa Bay Port'!$A$5:$A$9</f>
+              <f>'Haifa Bay Port'!$A$5:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Haifa Bay Port'!$B$5:$B$9</f>
+              <f>'Haifa Bay Port'!$B$5:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -3788,12 +3770,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Haifa Bay Port'!$A$5:$A$9</f>
+              <f>'Haifa Bay Port'!$A$5:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Haifa Bay Port'!$C$5:$C$9</f>
+              <f>'Haifa Bay Port'!$C$5:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -5367,11 +5349,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F257"/>
+  <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A249" ySplit="1"/>
-      <selection activeCell="A262" pane="bottomLeft" sqref="A262"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A281" ySplit="1"/>
+      <selection activeCell="C295" pane="bottomLeft" sqref="C295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="14.5" outlineLevelCol="0"/>
@@ -5379,11 +5361,11 @@
     <col customWidth="1" max="1" min="1" style="3" width="34.08984375"/>
     <col customWidth="1" max="2" min="2" style="3" width="33.6328125"/>
     <col collapsed="1" customWidth="1" max="3" min="3" style="3" width="20.453125"/>
-    <col collapsed="1" customWidth="1" max="4" min="4" style="5" width="24.36328125"/>
+    <col collapsed="1" customWidth="1" max="4" min="4" style="3" width="24.36328125"/>
     <col collapsed="1" customWidth="1" max="5" min="5" style="3" width="31.1796875"/>
     <col collapsed="1" customWidth="1" max="6" min="6" style="3" width="16.36328125"/>
-    <col collapsed="1" customWidth="1" max="13" min="7" style="3" width="9.1796875"/>
-    <col collapsed="1" customWidth="1" max="16384" min="14" style="3" width="9.1796875"/>
+    <col collapsed="1" customWidth="1" max="7" min="7" style="3" width="9.1796875"/>
+    <col collapsed="1" customWidth="1" max="16384" min="8" style="3" width="9.1796875"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="2" spans="1:6">
@@ -5396,7 +5378,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -5416,11 +5398,8 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>43237.72291666668</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
+      <c r="D2" s="4" t="n">
+        <v>43236.85138888889</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5433,16 +5412,13 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>43237.72291666668</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
+      <c r="D3" s="4" t="n">
+        <v>43236.86458333334</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -5450,16 +5426,13 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>43237.72083333333</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
+      <c r="D4" s="4" t="n">
+        <v>43236.89166666667</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -5467,28 +5440,25 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>43237.72083333333</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
+      <c r="D5" s="4" t="n">
+        <v>43236.91666666666</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="4" t="n">
+        <v>43237.01041666666</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>43244.47916666666</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5496,13 +5466,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>43244.47916666666</v>
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>43237.09444444445</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5510,41 +5480,41 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>43244.39930555555</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>43237.09791666668</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>43244.375</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>43237.24583333332</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>43244.375</v>
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>43237.26041666666</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5552,75 +5522,75 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>43244.34722222222</v>
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>43237.26875</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <v>43244.34375</v>
+      <c r="D12" s="4" t="n">
+        <v>43237.28472222222</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>43244.01041666666</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>43237.31944444445</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>43242.58333333334</v>
+      <c r="D14" s="4" t="n">
+        <v>43237.34375</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>43237.34722222222</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>43244.42430555557</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5628,50 +5598,44 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>43237.35416666666</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>43243.39583333334</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>43243.375</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>43237.35972222222</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>43243.375</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>43237.36458333334</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5679,47 +5643,47 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>43243.35416666666</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>43237.37291666667</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>43237.375</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>43242.70833333334</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>43242.57847222222</v>
-      </c>
-      <c r="F21" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>43237.375</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5727,83 +5691,92 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>43244.47291666668</v>
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>43237.375</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>43244.42430555557</v>
+        <v>19</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>43237.375</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>43244.42430555557</v>
+        <v>15</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>43237.39791666667</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>43244.42430555557</v>
+        <v>15</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>43237.39930555555</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>43244.42430555557</v>
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>43237.4125</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>43244.42430555557</v>
+      <c r="D27" s="4" t="n">
+        <v>43237.41666666666</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5811,13 +5784,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>43244.39791666667</v>
+        <v>8</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>43237.44791666666</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5825,111 +5798,129 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>43244.39583333334</v>
+        <v>10</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>43237.44791666666</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>43244.375</v>
+      <c r="D30" s="4" t="n">
+        <v>43237.47916666666</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>43244.36458333334</v>
+      <c r="D31" s="4" t="n">
+        <v>43237.47916666666</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>43244.35416666666</v>
+        <v>15</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>43237.48680555557</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>43244.29166666666</v>
+        <v>15</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>43237.49166666667</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>43244.28472222222</v>
+        <v>15</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>43237.51111111111</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="5" t="n">
-        <v>43244.28472222222</v>
+        <v>8</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>43237.52083333334</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="5" t="n">
-        <v>43244.28472222222</v>
+      <c r="D36" s="4" t="n">
+        <v>43237.54166666666</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5937,13 +5928,16 @@
         <v>6</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="5" t="n">
-        <v>43244.27430555555</v>
+        <v>8</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>43237.56805555556</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5951,41 +5945,47 @@
         <v>6</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="5" t="n">
-        <v>43244.25</v>
+        <v>15</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>43237.56944444445</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="5" t="n">
-        <v>43244.14583333334</v>
+      <c r="D39" s="4" t="n">
+        <v>43237.57291666666</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="5" t="n">
-        <v>43244.08611111111</v>
+        <v>15</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>43237.57847222222</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5993,41 +5993,44 @@
         <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="5" t="n">
-        <v>43244</v>
+        <v>8</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>43237.61111111111</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="5" t="n">
-        <v>43243.64583333334</v>
+        <v>8</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>43237.70833333334</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="5" t="n">
-        <v>43243.61111111111</v>
+        <v>22</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>43237.72083333333</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6038,52 +6041,61 @@
         <v>21</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="5" t="n">
-        <v>43243.57847222222</v>
+        <v>22</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>43237.72083333333</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="5" t="n">
-        <v>43243.57013888889</v>
+        <v>22</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>43237.72291666668</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="5" t="n">
-        <v>43243.56944444445</v>
+        <v>22</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>43237.72291666668</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="5" t="n">
-        <v>43243.52777777778</v>
+        <v>8</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>43237.78958333333</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6091,27 +6103,27 @@
         <v>6</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="5" t="n">
-        <v>43243.51111111111</v>
+        <v>8</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>43237.81944444445</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="5" t="n">
-        <v>43243.49305555555</v>
+        <v>8</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>43237.86458333334</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6119,13 +6131,16 @@
         <v>6</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="5" t="n">
-        <v>43243.49166666667</v>
+        <v>10</v>
+      </c>
+      <c r="D50" s="4" t="n">
+        <v>43238.01041666666</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6133,13 +6148,13 @@
         <v>6</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="5" t="n">
-        <v>43243.48680555557</v>
+        <v>8</v>
+      </c>
+      <c r="D51" s="4" t="n">
+        <v>43238.27083333334</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6147,13 +6162,13 @@
         <v>6</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="5" t="n">
-        <v>43243.47916666666</v>
+        <v>8</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>43238.31944444445</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6161,13 +6176,13 @@
         <v>6</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="5" t="n">
-        <v>43243.39930555555</v>
+        <v>8</v>
+      </c>
+      <c r="D53" s="4" t="n">
+        <v>43238.36458333334</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6175,27 +6190,33 @@
         <v>6</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="5" t="n">
-        <v>43243.39791666667</v>
+        <v>19</v>
+      </c>
+      <c r="D54" s="4" t="n">
+        <v>43238.375</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="5" t="n">
-        <v>43243.375</v>
+        <v>19</v>
+      </c>
+      <c r="D55" s="4" t="n">
+        <v>43238.375</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6203,27 +6224,33 @@
         <v>6</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="5" t="n">
-        <v>43243.375</v>
+        <v>19</v>
+      </c>
+      <c r="D56" s="4" t="n">
+        <v>43238.375</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="5" t="n">
-        <v>43243.375</v>
+        <v>19</v>
+      </c>
+      <c r="D57" s="4" t="n">
+        <v>43238.375</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6231,139 +6258,163 @@
         <v>6</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="5" t="n">
-        <v>43243.375</v>
+        <v>19</v>
+      </c>
+      <c r="D58" s="4" t="n">
+        <v>43238.375</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="5" t="n">
-        <v>43243.375</v>
+        <v>19</v>
+      </c>
+      <c r="D59" s="4" t="n">
+        <v>43238.375</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <v>43238.375</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D60" s="5" t="n">
-        <v>43243.36458333334</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="5" t="n">
-        <v>43243.28125</v>
+        <v>19</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>43238.39583333334</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="4" t="n">
+        <v>43238.39583333334</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D62" s="5" t="n">
-        <v>43243.27083333334</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="5" t="n">
-        <v>43243.26041666666</v>
+        <v>19</v>
+      </c>
+      <c r="D63" s="4" t="n">
+        <v>43238.39583333334</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="5" t="n">
-        <v>43243.22638888889</v>
+        <v>15</v>
+      </c>
+      <c r="D64" s="4" t="n">
+        <v>43238.39791666667</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="5" t="n">
-        <v>43243.08333333334</v>
+        <v>15</v>
+      </c>
+      <c r="D65" s="4" t="n">
+        <v>43238.39930555555</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="5" t="n">
-        <v>43242.86458333334</v>
+        <v>18</v>
+      </c>
+      <c r="D66" s="4" t="n">
+        <v>43238.4125</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="5" t="n">
-        <v>43242.81944444445</v>
+      <c r="D67" s="4" t="n">
+        <v>43238.41666666666</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6371,44 +6422,41 @@
         <v>6</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="5" t="n">
-        <v>43242.66180555556</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D68" s="4" t="n">
+        <v>43238.44791666666</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="5" t="n">
-        <v>43242.57013888889</v>
+        <v>18</v>
+      </c>
+      <c r="D69" s="4" t="n">
+        <v>43238.45416666667</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="5" t="n">
-        <v>43242.56944444445</v>
+      <c r="D70" s="4" t="n">
+        <v>43238.47916666666</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6416,41 +6464,47 @@
         <v>6</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="5" t="n">
-        <v>43242.51111111111</v>
+        <v>10</v>
+      </c>
+      <c r="D71" s="4" t="n">
+        <v>43238.47916666666</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="5" t="n">
-        <v>43242.49166666667</v>
+        <v>15</v>
+      </c>
+      <c r="D72" s="4" t="n">
+        <v>43238.48680555557</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="5" t="n">
-        <v>43242.48958333334</v>
+        <v>15</v>
+      </c>
+      <c r="D73" s="4" t="n">
+        <v>43238.49166666667</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6458,41 +6512,47 @@
         <v>6</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="5" t="n">
-        <v>43242.48680555557</v>
+        <v>18</v>
+      </c>
+      <c r="D74" s="4" t="n">
+        <v>43238.49583333332</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="5" t="n">
-        <v>43242.47916666666</v>
+        <v>15</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <v>43238.51111111111</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="5" t="n">
-        <v>43242.41666666666</v>
+      <c r="D76" s="4" t="n">
+        <v>43238.54166666666</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6500,13 +6560,16 @@
         <v>6</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="5" t="n">
-        <v>43242.39930555555</v>
+        <v>10</v>
+      </c>
+      <c r="D77" s="4" t="n">
+        <v>43238.54166666666</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6514,27 +6577,33 @@
         <v>6</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="5" t="n">
-        <v>43242.39791666667</v>
+        <v>15</v>
+      </c>
+      <c r="D78" s="4" t="n">
+        <v>43238.56944444445</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="5" t="n">
-        <v>43242.36458333334</v>
+      <c r="D79" s="4" t="n">
+        <v>43238.57291666666</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6542,13 +6611,13 @@
         <v>6</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="5" t="n">
-        <v>43242.35416666666</v>
+        <v>10</v>
+      </c>
+      <c r="D80" s="4" t="n">
+        <v>43239.01041666666</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6556,69 +6625,84 @@
         <v>6</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="5" t="n">
-        <v>43242.35416666666</v>
+        <v>19</v>
+      </c>
+      <c r="D81" s="4" t="n">
+        <v>43239.33333333334</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="5" t="n">
-        <v>43242.27777777778</v>
+        <v>19</v>
+      </c>
+      <c r="D82" s="4" t="n">
+        <v>43239.33333333334</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="5" t="n">
-        <v>43242.25</v>
+        <v>19</v>
+      </c>
+      <c r="D83" s="4" t="n">
+        <v>43239.33333333334</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="5" t="n">
-        <v>43242.02083333334</v>
+        <v>19</v>
+      </c>
+      <c r="D84" s="4" t="n">
+        <v>43239.375</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="4" t="n">
+        <v>43239.375</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D85" s="5" t="n">
-        <v>43241.70833333334</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6626,13 +6710,16 @@
         <v>6</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="5" t="n">
-        <v>43241.57847222222</v>
+        <v>19</v>
+      </c>
+      <c r="D86" s="4" t="n">
+        <v>43239.375</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6640,27 +6727,30 @@
         <v>6</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="5" t="n">
-        <v>43241.48680555557</v>
+        <v>19</v>
+      </c>
+      <c r="D87" s="4" t="n">
+        <v>43239.375</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="5" t="n">
-        <v>43241.41666666666</v>
+      <c r="D88" s="4" t="n">
+        <v>43239.41666666666</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6668,13 +6758,13 @@
         <v>6</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="5" t="n">
-        <v>43241.39930555555</v>
+        <v>10</v>
+      </c>
+      <c r="D89" s="4" t="n">
+        <v>43239.44791666666</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6682,13 +6772,13 @@
         <v>6</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="5" t="n">
-        <v>43241.39791666667</v>
+        <v>10</v>
+      </c>
+      <c r="D90" s="4" t="n">
+        <v>43239.47916666666</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6696,13 +6786,13 @@
         <v>6</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="5" t="n">
-        <v>43241.375</v>
+        <v>10</v>
+      </c>
+      <c r="D91" s="4" t="n">
+        <v>43239.47916666666</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6710,156 +6800,159 @@
         <v>6</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="5" t="n">
-        <v>43241.375</v>
+        <v>8</v>
+      </c>
+      <c r="D92" s="4" t="n">
+        <v>43239.86458333334</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" s="5" t="n">
-        <v>43241.36458333334</v>
+      <c r="D93" s="4" t="n">
+        <v>43240.01041666666</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="5" t="n">
-        <v>43241.29861111111</v>
+      <c r="D94" s="4" t="n">
+        <v>43240.01041666666</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="5" t="n">
-        <v>43241.29861111111</v>
+        <v>8</v>
+      </c>
+      <c r="D95" s="4" t="n">
+        <v>43240.27083333334</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="5" t="n">
-        <v>43241.27083333334</v>
+        <v>19</v>
+      </c>
+      <c r="D96" s="4" t="n">
+        <v>43240.28888888889</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" s="5" t="n">
-        <v>43241.25347222222</v>
+        <v>19</v>
+      </c>
+      <c r="D97" s="4" t="n">
+        <v>43240.28888888889</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98" s="5" t="n">
-        <v>43241.25347222222</v>
+        <v>19</v>
+      </c>
+      <c r="D98" s="4" t="n">
+        <v>43240.28888888889</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D99" s="5" t="n">
-        <v>43241.01944444444</v>
+        <v>19</v>
+      </c>
+      <c r="D99" s="4" t="n">
+        <v>43240.29375</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="5" t="n">
-        <v>43241.01041666666</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="D100" s="4" t="n">
+        <v>43240.29375</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101" s="5" t="n">
-        <v>43240.90277777778</v>
+        <v>19</v>
+      </c>
+      <c r="D101" s="4" t="n">
+        <v>43240.29513888889</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="5" t="n">
-        <v>43240.375</v>
+        <v>19</v>
+      </c>
+      <c r="D102" s="4" t="n">
+        <v>43240.29722222222</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6867,13 +6960,16 @@
         <v>6</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="5" t="n">
-        <v>43240.375</v>
+        <v>8</v>
+      </c>
+      <c r="D103" s="4" t="n">
+        <v>43240.31944444445</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6881,97 +6977,109 @@
         <v>6</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="5" t="n">
-        <v>43240.375</v>
+        <v>8</v>
+      </c>
+      <c r="D104" s="4" t="n">
+        <v>43240.36458333334</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="5" t="n">
-        <v>43240.29722222222</v>
+        <v>19</v>
+      </c>
+      <c r="D105" s="4" t="n">
+        <v>43240.375</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="5" t="n">
-        <v>43240.29513888889</v>
+        <v>19</v>
+      </c>
+      <c r="D106" s="4" t="n">
+        <v>43240.375</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="5" t="n">
-        <v>43240.29375</v>
+        <v>19</v>
+      </c>
+      <c r="D107" s="4" t="n">
+        <v>43240.375</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" s="5" t="n">
-        <v>43240.29375</v>
+        <v>19</v>
+      </c>
+      <c r="D108" s="4" t="n">
+        <v>43240.375</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="5" t="n">
-        <v>43240.28888888889</v>
+        <v>19</v>
+      </c>
+      <c r="D109" s="4" t="n">
+        <v>43240.375</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="5" t="n">
-        <v>43240.28888888889</v>
+        <v>19</v>
+      </c>
+      <c r="D110" s="4" t="n">
+        <v>43240.375</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6979,153 +7087,165 @@
         <v>6</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" s="5" t="n">
-        <v>43240.28888888889</v>
+        <v>19</v>
+      </c>
+      <c r="D111" s="4" t="n">
+        <v>43240.375</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" s="5" t="n">
-        <v>43238.49583333332</v>
+      <c r="D112" s="4" t="n">
+        <v>43240.44791666666</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="5" t="n">
-        <v>43238.45416666667</v>
+      <c r="D113" s="4" t="n">
+        <v>43240.44791666666</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="5" t="n">
-        <v>43238.44791666666</v>
+      <c r="D114" s="4" t="n">
+        <v>43240.47916666666</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="5" t="n">
-        <v>43238.41666666666</v>
+      <c r="D115" s="4" t="n">
+        <v>43240.47916666666</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="5" t="n">
-        <v>43238.4125</v>
+      <c r="D116" s="4" t="n">
+        <v>43240.47916666666</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117" s="5" t="n">
-        <v>43237.86458333334</v>
+        <v>8</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>43240.52083333334</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D118" s="5" t="n">
-        <v>43237.81944444445</v>
+      <c r="D118" s="4" t="n">
+        <v>43240.54166666666</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="5" t="n">
-        <v>43237.78958333333</v>
+      <c r="D119" s="4" t="n">
+        <v>43240.57291666666</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D120" s="5" t="n">
-        <v>43237.70833333334</v>
+        <v>8</v>
+      </c>
+      <c r="D120" s="4" t="n">
+        <v>43240.70833333334</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="5" t="n">
-        <v>43237.61111111111</v>
+        <v>8</v>
+      </c>
+      <c r="D121" s="4" t="n">
+        <v>43240.81944444445</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7133,13 +7253,13 @@
         <v>6</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" s="5" t="n">
-        <v>43237.57847222222</v>
+        <v>8</v>
+      </c>
+      <c r="D122" s="4" t="n">
+        <v>43240.86458333334</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7147,13 +7267,13 @@
         <v>6</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="5" t="n">
-        <v>43237.49166666667</v>
+        <v>8</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>43240.90277777778</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -7161,537 +7281,489 @@
         <v>6</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="5" t="n">
-        <v>43237.48680555557</v>
+        <v>10</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>43241.01041666666</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="5" t="n">
-        <v>43244.47916666666</v>
+      <c r="D125" s="4" t="n">
+        <v>43241.01041666666</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="5" t="n">
-        <v>43244.47916666666</v>
+      <c r="D126" s="4" t="n">
+        <v>43241.01041666666</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="5" t="n">
-        <v>43244.47916666666</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D127" s="4" t="n">
+        <v>43241.01944444444</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="5" t="n">
-        <v>43244.46458333332</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D128" s="4" t="n">
+        <v>43241.14583333334</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="5" t="n">
-        <v>43244.4625</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D129" s="4" t="n">
+        <v>43241.14583333334</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="5" t="n">
-        <v>43244.44791666666</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="D130" s="4" t="n">
+        <v>43241.14583333334</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="5" t="n">
-        <v>43244.44791666666</v>
+        <v>19</v>
+      </c>
+      <c r="D131" s="4" t="n">
+        <v>43241.14583333334</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="5" t="n">
-        <v>43244.41666666666</v>
+        <v>19</v>
+      </c>
+      <c r="D132" s="4" t="n">
+        <v>43241.14583333334</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="5" t="n">
-        <v>43244.01041666666</v>
+        <v>19</v>
+      </c>
+      <c r="D133" s="4" t="n">
+        <v>43241.14583333334</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="5" t="n">
-        <v>43244.01041666666</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D134" s="4" t="n">
+        <v>43241.25347222222</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D135" s="5" t="n">
-        <v>43243.81944444445</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="D135" s="4" t="n">
+        <v>43241.25347222222</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="5" t="n">
-        <v>43243.57291666666</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D136" s="4" t="n">
+        <v>43241.27083333334</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="5" t="n">
-        <v>43243.54166666666</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="D137" s="4" t="n">
+        <v>43241.29861111111</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="5" t="n">
-        <v>43243.47916666666</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="D138" s="4" t="n">
+        <v>43241.29861111111</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="5" t="n">
-        <v>43243.47916666666</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D139" s="4" t="n">
+        <v>43241.31944444445</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="5" t="n">
-        <v>43243.47916666666</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="D140" s="4" t="n">
+        <v>43241.36458333334</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="5" t="n">
-        <v>43243.44791666666</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="D141" s="4" t="n">
+        <v>43241.375</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="5" t="n">
-        <v>43243.44791666666</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="D142" s="4" t="n">
+        <v>43241.375</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="5" t="n">
-        <v>43243.41666666666</v>
+        <v>19</v>
+      </c>
+      <c r="D143" s="4" t="n">
+        <v>43241.375</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="5" t="n">
-        <v>43243.01041666666</v>
+        <v>19</v>
+      </c>
+      <c r="D144" s="4" t="n">
+        <v>43241.375</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="5" t="n">
-        <v>43243.01041666666</v>
+        <v>15</v>
+      </c>
+      <c r="D145" s="4" t="n">
+        <v>43241.39791666667</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="5" t="n">
-        <v>43242.57291666666</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="D146" s="4" t="n">
+        <v>43241.39930555555</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="5" t="n">
-        <v>43242.54166666666</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>9</v>
+      <c r="D147" s="4" t="n">
+        <v>43241.41666666666</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="5" t="n">
-        <v>43242.47916666666</v>
+      <c r="D148" s="4" t="n">
+        <v>43241.44791666666</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="5" t="n">
-        <v>43242.47916666666</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>9</v>
+      <c r="D149" s="4" t="n">
+        <v>43241.44791666666</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="5" t="n">
-        <v>43242.44791666666</v>
+      <c r="D150" s="4" t="n">
+        <v>43241.47916666666</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="5" t="n">
-        <v>43242.44791666666</v>
+      <c r="D151" s="4" t="n">
+        <v>43241.47916666666</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="D152" s="4" t="n">
+        <v>43241.47916666666</v>
+      </c>
+      <c r="E152" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="5" t="n">
-        <v>43242.41666666666</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" s="5" t="n">
-        <v>43242.375</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="D153" s="4" t="n">
+        <v>43241.48680555557</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="5" t="n">
-        <v>43242.36388888889</v>
+        <v>15</v>
+      </c>
+      <c r="D154" s="4" t="n">
+        <v>43241.49166666667</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" s="5" t="n">
-        <v>43242.35416666666</v>
+        <v>15</v>
+      </c>
+      <c r="D155" s="4" t="n">
+        <v>43241.51111111111</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7699,169 +7771,160 @@
         <v>6</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="4" t="n">
+        <v>43241.52083333334</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D156" s="5" t="n">
-        <v>43242.29861111111</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="5" t="n">
-        <v>43242.01041666666</v>
+      <c r="D157" s="4" t="n">
+        <v>43241.54166666666</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D158" s="5" t="n">
-        <v>43241.86458333334</v>
+        <v>15</v>
+      </c>
+      <c r="D158" s="4" t="n">
+        <v>43241.56944444445</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D159" s="5" t="n">
-        <v>43241.81944444445</v>
+      <c r="D159" s="4" t="n">
+        <v>43241.57291666666</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="5" t="n">
+      <c r="D160" s="4" t="n">
         <v>43241.57291666666</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="5" t="n">
-        <v>43241.57291666666</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="D161" s="4" t="n">
+        <v>43241.57847222222</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D162" s="5" t="n">
-        <v>43241.56944444445</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="D162" s="4" t="n">
+        <v>43241.70833333334</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="4" t="n">
+        <v>43241.81944444445</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="5" t="n">
-        <v>43241.54166666666</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="4" t="n">
+        <v>43241.86458333334</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D164" s="5" t="n">
-        <v>43241.52083333334</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D165" s="5" t="n">
-        <v>43241.51111111111</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D165" s="4" t="n">
+        <v>43242</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7869,118 +7932,103 @@
         <v>6</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D166" s="5" t="n">
-        <v>43241.49166666667</v>
+        <v>10</v>
+      </c>
+      <c r="D166" s="4" t="n">
+        <v>43242.01041666666</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="5" t="n">
-        <v>43241.47916666666</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>9</v>
+      <c r="D167" s="4" t="n">
+        <v>43242.01041666666</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="5" t="n">
-        <v>43241.47916666666</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>9</v>
+      <c r="D168" s="4" t="n">
+        <v>43242.02083333334</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169" s="5" t="n">
-        <v>43241.47916666666</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="D169" s="4" t="n">
+        <v>43242.25</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="5" t="n">
-        <v>43241.44791666666</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D170" s="4" t="n">
+        <v>43242.27083333334</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D171" s="5" t="n">
-        <v>43241.375</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D171" s="4" t="n">
+        <v>43242.27777777778</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" s="4" t="n">
+        <v>43242.29861111111</v>
+      </c>
+      <c r="E172" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D172" s="5" t="n">
-        <v>43241.375</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7988,163 +8036,151 @@
         <v>6</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173" s="5" t="n">
-        <v>43241.14583333334</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="D173" s="4" t="n">
+        <v>43242.31944444445</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D174" s="5" t="n">
-        <v>43241.14583333334</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="D174" s="4" t="n">
+        <v>43242.35416666666</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D175" s="5" t="n">
-        <v>43241.14583333334</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="D175" s="4" t="n">
+        <v>43242.35416666666</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" s="5" t="n">
-        <v>43241.01041666666</v>
+        <v>19</v>
+      </c>
+      <c r="D176" s="4" t="n">
+        <v>43242.35416666666</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="5" t="n">
-        <v>43241.01041666666</v>
+        <v>19</v>
+      </c>
+      <c r="D177" s="4" t="n">
+        <v>43242.36388888889</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" s="5" t="n">
-        <v>43240.57291666666</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D178" s="4" t="n">
+        <v>43242.36458333334</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="5" t="n">
-        <v>43240.54166666666</v>
+        <v>19</v>
+      </c>
+      <c r="D179" s="4" t="n">
+        <v>43242.375</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D180" s="5" t="n">
-        <v>43240.52083333334</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="D180" s="4" t="n">
+        <v>43242.39791666667</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="5" t="n">
-        <v>43240.47916666666</v>
+        <v>15</v>
+      </c>
+      <c r="D181" s="4" t="n">
+        <v>43242.39930555555</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B182" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="5" t="n">
-        <v>43240.44791666666</v>
+      <c r="D182" s="4" t="n">
+        <v>43242.41666666666</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -8152,16 +8188,13 @@
         <v>6</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D183" s="5" t="n">
-        <v>43240.375</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="D183" s="4" t="n">
+        <v>43242.41666666666</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -8169,16 +8202,16 @@
         <v>6</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D184" s="5" t="n">
-        <v>43240.375</v>
+        <v>10</v>
+      </c>
+      <c r="D184" s="4" t="n">
+        <v>43242.44791666666</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -8186,115 +8219,106 @@
         <v>6</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D185" s="5" t="n">
-        <v>43240.375</v>
+        <v>10</v>
+      </c>
+      <c r="D185" s="4" t="n">
+        <v>43242.44791666666</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D186" s="5" t="n">
-        <v>43240.375</v>
+      <c r="D186" s="4" t="n">
+        <v>43242.47916666666</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D187" s="5" t="n">
-        <v>43240.36458333334</v>
+      <c r="D187" s="4" t="n">
+        <v>43242.47916666666</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D188" s="5" t="n">
-        <v>43240.31944444445</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>9</v>
+      <c r="D188" s="4" t="n">
+        <v>43242.47916666666</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D189" s="5" t="n">
-        <v>43240.27083333334</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>9</v>
+      <c r="D189" s="4" t="n">
+        <v>43242.47916666666</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="5" t="n">
-        <v>43240.01041666666</v>
+      <c r="D190" s="4" t="n">
+        <v>43242.47916666666</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D191" s="5" t="n">
-        <v>43239.86458333334</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="D191" s="4" t="n">
+        <v>43242.48680555557</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -8302,84 +8326,72 @@
         <v>6</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D192" s="5" t="n">
-        <v>43239.375</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="D192" s="4" t="n">
+        <v>43242.48958333334</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D193" s="5" t="n">
-        <v>43239.375</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="D193" s="4" t="n">
+        <v>43242.49166666667</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D194" s="5" t="n">
-        <v>43239.375</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="D194" s="4" t="n">
+        <v>43242.51111111111</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D195" s="5" t="n">
-        <v>43239.375</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="D195" s="4" t="n">
+        <v>43242.52083333334</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D196" s="5" t="n">
-        <v>43239.33333333334</v>
+      <c r="D196" s="4" t="n">
+        <v>43242.54166666666</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -8387,16 +8399,13 @@
         <v>6</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D197" s="5" t="n">
-        <v>43239.33333333334</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="D197" s="4" t="n">
+        <v>43242.56944444445</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8404,84 +8413,78 @@
         <v>6</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D198" s="5" t="n">
-        <v>43239.33333333334</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="D198" s="4" t="n">
+        <v>43242.57013888889</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="5" t="n">
-        <v>43238.57291666666</v>
+      <c r="D199" s="4" t="n">
+        <v>43242.57291666666</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D200" s="5" t="n">
-        <v>43238.56944444445</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="D200" s="4" t="n">
+        <v>43242.57847222222</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="5" t="n">
-        <v>43238.54166666666</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D201" s="4" t="n">
+        <v>43242.58333333334</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202" s="5" t="n">
-        <v>43238.54166666666</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="D202" s="4" t="n">
+        <v>43242.66180555556</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8489,16 +8492,16 @@
         <v>6</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D203" s="5" t="n">
-        <v>43238.51111111111</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="D203" s="4" t="n">
+        <v>43242.70833333334</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8506,13 +8509,13 @@
         <v>6</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D204" s="5" t="n">
-        <v>43238.49166666667</v>
+        <v>8</v>
+      </c>
+      <c r="D204" s="4" t="n">
+        <v>43242.81944444445</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8520,33 +8523,27 @@
         <v>6</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D205" s="5" t="n">
-        <v>43238.48680555557</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="D205" s="4" t="n">
+        <v>43242.86458333334</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B206" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D206" s="5" t="n">
-        <v>43238.47916666666</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>24</v>
+      <c r="D206" s="4" t="n">
+        <v>43243</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8554,16 +8551,13 @@
         <v>6</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D207" s="5" t="n">
-        <v>43238.39930555555</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D207" s="4" t="n">
+        <v>43243.01041666666</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8571,118 +8565,103 @@
         <v>6</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D208" s="5" t="n">
-        <v>43238.39791666667</v>
+        <v>10</v>
+      </c>
+      <c r="D208" s="4" t="n">
+        <v>43243.01041666666</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D209" s="5" t="n">
-        <v>43238.39583333334</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="D209" s="4" t="n">
+        <v>43243.08333333334</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D210" s="5" t="n">
-        <v>43238.39583333334</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="D210" s="4" t="n">
+        <v>43243.22638888889</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D211" s="5" t="n">
-        <v>43238.39583333334</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D211" s="4" t="n">
+        <v>43243.26041666666</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D212" s="5" t="n">
-        <v>43238.375</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="D212" s="4" t="n">
+        <v>43243.27083333334</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D213" s="5" t="n">
-        <v>43238.375</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D213" s="4" t="n">
+        <v>43243.28125</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D214" s="5" t="n">
-        <v>43238.375</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="D214" s="4" t="n">
+        <v>43243.35416666666</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8690,228 +8669,213 @@
         <v>6</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D215" s="5" t="n">
-        <v>43238.375</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="D215" s="4" t="n">
+        <v>43243.36458333334</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D216" s="5" t="n">
-        <v>43238.375</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="D216" s="4" t="n">
+        <v>43243.375</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D217" s="5" t="n">
-        <v>43238.375</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="D217" s="4" t="n">
+        <v>43243.375</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D218" s="5" t="n">
-        <v>43238.375</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="D218" s="4" t="n">
+        <v>43243.375</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D219" s="5" t="n">
-        <v>43238.01041666666</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="D219" s="4" t="n">
+        <v>43243.375</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="5" t="n">
-        <v>43237.57291666666</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="D220" s="4" t="n">
+        <v>43243.375</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D221" s="5" t="n">
-        <v>43237.56944444445</v>
-      </c>
-      <c r="E221" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="D221" s="4" t="n">
+        <v>43243.375</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D222" s="5" t="n">
-        <v>43237.56805555556</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="D222" s="4" t="n">
+        <v>43243.375</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" s="5" t="n">
-        <v>43237.54166666666</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="D223" s="4" t="n">
+        <v>43243.39583333334</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D224" s="5" t="n">
-        <v>43237.52083333334</v>
-      </c>
-      <c r="E224" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="D224" s="4" t="n">
+        <v>43243.39791666667</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D225" s="5" t="n">
-        <v>43237.51111111111</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="D225" s="4" t="n">
+        <v>43243.39930555555</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B226" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D226" s="5" t="n">
-        <v>43244.31944444445</v>
+      <c r="D226" s="4" t="n">
+        <v>43243.41666666666</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D227" s="5" t="n">
-        <v>43244.27083333334</v>
+      <c r="D227" s="4" t="n">
+        <v>43243.44791666666</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B228" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D228" s="5" t="n">
-        <v>43243.86458333334</v>
+      <c r="D228" s="4" t="n">
+        <v>43243.44791666666</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8919,27 +8883,33 @@
         <v>6</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229" s="5" t="n">
-        <v>43243</v>
+        <v>10</v>
+      </c>
+      <c r="D229" s="4" t="n">
+        <v>43243.47916666666</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B230" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D230" s="5" t="n">
-        <v>43242.52083333334</v>
+      <c r="D230" s="4" t="n">
+        <v>43243.47916666666</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -8947,111 +8917,117 @@
         <v>6</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="5" t="n">
-        <v>43242.47916666666</v>
+        <v>10</v>
+      </c>
+      <c r="D231" s="4" t="n">
+        <v>43243.47916666666</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D232" s="5" t="n">
-        <v>43242.47916666666</v>
+        <v>10</v>
+      </c>
+      <c r="D232" s="4" t="n">
+        <v>43243.47916666666</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D233" s="5" t="n">
-        <v>43242.31944444445</v>
+        <v>15</v>
+      </c>
+      <c r="D233" s="4" t="n">
+        <v>43243.48680555557</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D234" s="5" t="n">
-        <v>43242.27083333334</v>
+        <v>15</v>
+      </c>
+      <c r="D234" s="4" t="n">
+        <v>43243.49166666667</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B235" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D235" s="5" t="n">
-        <v>43242.01041666666</v>
+      <c r="D235" s="4" t="n">
+        <v>43243.49305555555</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D236" s="5" t="n">
-        <v>43242</v>
+        <v>15</v>
+      </c>
+      <c r="D236" s="4" t="n">
+        <v>43243.51111111111</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="5" t="n">
-        <v>43241.44791666666</v>
+        <v>19</v>
+      </c>
+      <c r="D237" s="4" t="n">
+        <v>43243.52777777778</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B238" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D238" s="5" t="n">
-        <v>43241.31944444445</v>
+      <c r="D238" s="4" t="n">
+        <v>43243.54166666666</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -9059,13 +9035,13 @@
         <v>6</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D239" s="5" t="n">
-        <v>43241.14583333334</v>
+        <v>15</v>
+      </c>
+      <c r="D239" s="4" t="n">
+        <v>43243.56944444445</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -9073,13 +9049,13 @@
         <v>6</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D240" s="5" t="n">
-        <v>43241.14583333334</v>
+        <v>15</v>
+      </c>
+      <c r="D240" s="4" t="n">
+        <v>43243.57013888889</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -9087,249 +9063,890 @@
         <v>6</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D241" s="5" t="n">
-        <v>43241.14583333334</v>
+        <v>10</v>
+      </c>
+      <c r="D241" s="4" t="n">
+        <v>43243.57291666666</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D242" s="5" t="n">
-        <v>43240.86458333334</v>
+        <v>15</v>
+      </c>
+      <c r="D242" s="4" t="n">
+        <v>43243.57847222222</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D243" s="5" t="n">
-        <v>43240.81944444445</v>
+        <v>8</v>
+      </c>
+      <c r="D243" s="4" t="n">
+        <v>43243.61111111111</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D244" s="5" t="n">
-        <v>43240.70833333334</v>
+        <v>8</v>
+      </c>
+      <c r="D244" s="4" t="n">
+        <v>43243.64583333334</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245" s="5" t="n">
-        <v>43240.47916666666</v>
+        <v>8</v>
+      </c>
+      <c r="D245" s="4" t="n">
+        <v>43243.81944444445</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D246" s="5" t="n">
-        <v>43240.47916666666</v>
+        <v>8</v>
+      </c>
+      <c r="D246" s="4" t="n">
+        <v>43243.86458333334</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B247" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D247" s="5" t="n">
-        <v>43240.44791666666</v>
+      <c r="D247" s="4" t="n">
+        <v>43244</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B248" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D248" s="5" t="n">
-        <v>43240.01041666666</v>
+      <c r="D248" s="4" t="n">
+        <v>43244.01041666666</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B249" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249" s="5" t="n">
-        <v>43239.47916666666</v>
+      <c r="D249" s="4" t="n">
+        <v>43244.01041666666</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B250" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D250" s="5" t="n">
-        <v>43239.47916666666</v>
+      <c r="D250" s="4" t="n">
+        <v>43244.01041666666</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251" s="5" t="n">
-        <v>43239.44791666666</v>
+        <v>19</v>
+      </c>
+      <c r="D251" s="4" t="n">
+        <v>43244.08611111111</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D252" s="5" t="n">
-        <v>43239.41666666666</v>
+        <v>15</v>
+      </c>
+      <c r="D252" s="4" t="n">
+        <v>43244.14583333334</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D253" s="5" t="n">
-        <v>43239.01041666666</v>
+        <v>13</v>
+      </c>
+      <c r="D253" s="4" t="n">
+        <v>43244.25</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D254" s="5" t="n">
-        <v>43238.47916666666</v>
+        <v>8</v>
+      </c>
+      <c r="D254" s="4" t="n">
+        <v>43244.27083333334</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D255" s="5" t="n">
-        <v>43238.36458333334</v>
+        <v>13</v>
+      </c>
+      <c r="D255" s="4" t="n">
+        <v>43244.27430555555</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D256" s="5" t="n">
-        <v>43238.31944444445</v>
+        <v>18</v>
+      </c>
+      <c r="D256" s="4" t="n">
+        <v>43244.28472222222</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D257" s="4" t="n">
+        <v>43244.28472222222</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D258" s="4" t="n">
+        <v>43244.28472222222</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259" s="4" t="n">
+        <v>43244.29166666666</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" s="4" t="n">
+        <v>43244.31944444445</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D261" s="4" t="n">
+        <v>43244.34375</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" s="4" t="n">
+        <v>43244.34722222222</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D263" s="4" t="n">
+        <v>43244.35416666666</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" s="4" t="n">
+        <v>43244.36458333334</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D265" s="4" t="n">
+        <v>43244.375</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D266" s="4" t="n">
+        <v>43244.375</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D267" s="4" t="n">
+        <v>43244.375</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D268" s="4" t="n">
+        <v>43244.39583333334</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D269" s="4" t="n">
+        <v>43244.39791666667</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D270" s="4" t="n">
+        <v>43244.39930555555</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B257" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C257" s="3" t="s">
+      <c r="D271" s="4" t="n">
+        <v>43244.41666666666</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D272" s="4" t="n">
+        <v>43244.42430555557</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D273" s="4" t="n">
+        <v>43244.42430555557</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D274" s="4" t="n">
+        <v>43244.42430555557</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D275" s="4" t="n">
+        <v>43244.42430555557</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D276" s="4" t="n">
+        <v>43244.42430555557</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D277" s="4" t="n">
+        <v>43244.42430555557</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" s="4" t="n">
+        <v>43244.44791666666</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" s="4" t="n">
+        <v>43244.44791666666</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D280" s="4" t="n">
+        <v>43244.4625</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D281" s="4" t="n">
+        <v>43244.46458333332</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D282" s="4" t="n">
+        <v>43244.47291666668</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D283" s="4" t="n">
+        <v>43244.47916666666</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D284" s="4" t="n">
+        <v>43244.47916666666</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D285" s="4" t="n">
+        <v>43244.47916666666</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D286" s="4" t="n">
+        <v>43244.47916666666</v>
+      </c>
+      <c r="E286" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D257" s="5" t="n">
-        <v>43238.27083333334</v>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D287" s="4" t="n">
+        <v>43244.47916666666</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D288" s="4" t="n">
+        <v>43244.48680555557</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D289" s="4" t="n">
+        <v>43244.49166666667</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D290" s="4" t="n">
+        <v>43244.51111111111</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" s="4" t="n">
+        <v>43244.52083333334</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D292" s="4" t="n">
+        <v>43244.54166666666</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D293" s="4" t="n">
+        <v>43244.56944444445</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D294" s="4" t="n">
+        <v>43244.57013888889</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D295" s="4" t="n">
+        <v>43244.57291666666</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D296" s="4" t="n">
+        <v>43244.57847222222</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297" s="4" t="n">
+        <v>43244.70833333334</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="4" t="n">
+        <v>43244.81944444445</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F257">
-    <sortState ref="A2:F257">
-      <sortCondition descending="1" ref="B1:B257"/>
-    </sortState>
-  </autoFilter>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"-,Bold"&amp;9 Better Excel (Current fields) (JIRA)&amp;R&amp;9 Generated with the Better Excel Plugin for JIRAThu May 24 08:47:55 UTC 2018</oddHeader>
+    <oddHeader>&amp;L&amp;"-,Bold"&amp;9 Better Excel (Current fields) (JIRA)&amp;R&amp;9 Generated with the Better Excel Plugin for JIRAThu May 24 15:20:20 UTC 2018</oddHeader>
     <oddFooter>&amp;C&amp;9 Page &amp;P</oddFooter>
     <evenHeader/>
     <evenFooter/>
@@ -9366,7 +9983,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9390,10 +10007,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9401,7 +10018,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="n">
         <v>8</v>
@@ -9412,7 +10029,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
@@ -9423,7 +10040,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
         <v>9</v>
@@ -9434,7 +10051,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
         <v>12</v>
@@ -9445,7 +10062,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="n">
         <v>16</v>
@@ -9456,7 +10073,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="n">
         <v>13</v>
@@ -9467,10 +10084,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -9498,15 +10115,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -9514,15 +10131,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
         <v>16</v>
@@ -9530,7 +10147,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
         <v>11</v>
@@ -9538,15 +10155,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -9554,7 +10171,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -9562,7 +10179,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -9570,23 +10187,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -9594,7 +10211,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -9602,7 +10219,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -9620,7 +10237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9641,7 +10258,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9649,7 +10266,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9661,6 +10278,94 @@
       </c>
       <c r="C4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -9685,55 +10390,55 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -9741,7 +10446,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -9749,39 +10454,39 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -9789,7 +10494,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -9872,15 +10577,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -9888,7 +10593,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -9896,7 +10601,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -9904,7 +10609,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -9912,15 +10617,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -9928,7 +10633,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -9936,7 +10641,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -9944,15 +10649,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -9960,7 +10665,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -9968,7 +10673,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -9976,7 +10681,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -10039,7 +10744,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -10070,15 +10775,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -10086,7 +10791,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -10094,7 +10799,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -10102,7 +10807,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -10110,15 +10815,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -10126,7 +10831,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -10134,7 +10839,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -10142,15 +10847,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -10158,7 +10863,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -10166,7 +10871,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -10174,7 +10879,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -10192,7 +10897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10213,7 +10918,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10221,7 +10926,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10248,12 +10953,23 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -10279,15 +10995,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -10295,7 +11011,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -10303,7 +11019,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -10311,23 +11027,23 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -10335,7 +11051,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -10343,7 +11059,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -10351,15 +11067,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -10367,7 +11083,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -10375,7 +11091,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -10383,7 +11099,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -10401,7 +11117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10422,7 +11138,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>256</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10430,7 +11146,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="n">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10449,10 +11165,10 @@
         <v>31</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10460,10 +11176,10 @@
         <v>32</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -10471,10 +11187,10 @@
         <v>33</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -10482,10 +11198,10 @@
         <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10493,10 +11209,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10507,7 +11223,7 @@
         <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -10518,7 +11234,7 @@
         <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -10529,7 +11245,18 @@
         <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -10554,55 +11281,55 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="n">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -10610,39 +11337,39 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>4</v>
@@ -10650,15 +11377,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>8</v>
@@ -10676,7 +11403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10697,7 +11424,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10705,7 +11432,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10721,7 +11448,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -10735,7 +11462,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -10746,7 +11473,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -10757,9 +11484,20 @@
         <v>38</v>
       </c>
       <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10785,15 +11523,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -10801,7 +11539,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -10809,7 +11547,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -10817,23 +11555,23 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -10841,7 +11579,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -10849,7 +11587,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -10857,15 +11595,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -10873,7 +11611,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -10881,7 +11619,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -10889,7 +11627,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -10907,7 +11645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10928,7 +11666,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10936,7 +11674,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10955,10 +11693,10 @@
         <v>31</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10966,10 +11704,10 @@
         <v>32</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -10977,7 +11715,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -10988,10 +11726,10 @@
         <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11002,7 +11740,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11010,10 +11748,10 @@
         <v>36</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11021,10 +11759,10 @@
         <v>37</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11032,10 +11770,21 @@
         <v>38</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -11060,23 +11809,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="n">
         <v>11</v>
@@ -11084,31 +11833,31 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -11116,31 +11865,31 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
@@ -11148,7 +11897,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -11156,7 +11905,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -11164,7 +11913,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>4</v>
@@ -11203,7 +11952,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11211,7 +11960,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11227,18 +11976,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
         <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -11249,7 +11998,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
@@ -11260,7 +12009,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="n">
         <v>9</v>
@@ -11271,7 +12020,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
@@ -11282,13 +12031,13 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
         <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -11313,15 +12062,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -11329,15 +12078,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -11345,23 +12094,23 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -11369,7 +12118,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -11377,7 +12126,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -11385,23 +12134,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -11409,15 +12158,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>

--- a/SiteStatusProject.xlsx
+++ b/SiteStatusProject.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\python\siteStatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71E7D93-734E-4923-8D37-0F47897E2BFF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE34FFEC-4763-4558-9F69-9BDFB951B402}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SiteStatusProject" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SiteStatusProject!$B$1:$B$258</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -34,10 +37,10 @@
     <t>Custom field (Mission start date/time)</t>
   </si>
   <si>
-    <t>Custom field (Fail key reason)</t>
+    <t>Custom field (Flight Cancellation Key Reason)</t>
   </si>
   <si>
-    <t>Custom field (Flight Cancellation Key Reason)</t>
+    <t>Custom field (Fail key reason)</t>
   </si>
   <si>
     <t>Created</t>
@@ -447,15 +450,15 @@
   <dimension ref="A1:G258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -971,7 +974,7 @@
       <c r="D30" s="1">
         <v>43244.424305555571</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="1">
@@ -1042,7 +1045,7 @@
       <c r="D34" s="1">
         <v>43245.570138888892</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="1">
@@ -1062,7 +1065,7 @@
       <c r="D35" s="1">
         <v>43244.570138888892</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="1">
@@ -1303,7 +1306,7 @@
       <c r="D49" s="1">
         <v>43244.46458333332</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="1">
@@ -1323,7 +1326,7 @@
       <c r="D50" s="1">
         <v>43244.462500000001</v>
       </c>
-      <c r="F50" t="s">
+      <c r="E50" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="1">
@@ -1377,7 +1380,7 @@
       <c r="D53" s="1">
         <v>43242.661805555559</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="1">
@@ -1635,7 +1638,7 @@
       <c r="D68" s="1">
         <v>43242.363888888889</v>
       </c>
-      <c r="F68" t="s">
+      <c r="E68" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="1">
@@ -1655,7 +1658,7 @@
       <c r="D69" s="1">
         <v>43242.354166666657</v>
       </c>
-      <c r="F69" t="s">
+      <c r="E69" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="1">
@@ -1692,7 +1695,7 @@
       <c r="D71" s="1">
         <v>43245</v>
       </c>
-      <c r="F71" t="s">
+      <c r="E71" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="1">
@@ -1712,7 +1715,7 @@
       <c r="D72" s="1">
         <v>43245.479166666657</v>
       </c>
-      <c r="F72" t="s">
+      <c r="E72" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="1">
@@ -1749,7 +1752,7 @@
       <c r="D74" s="1">
         <v>43245.479166666657</v>
       </c>
-      <c r="F74" t="s">
+      <c r="E74" t="s">
         <v>21</v>
       </c>
       <c r="G74" s="1">
@@ -1769,7 +1772,7 @@
       <c r="D75" s="1">
         <v>43244.479166666657</v>
       </c>
-      <c r="F75" t="s">
+      <c r="E75" t="s">
         <v>15</v>
       </c>
       <c r="G75" s="1">
@@ -1891,7 +1894,7 @@
       <c r="D82" s="1">
         <v>43241.010416666657</v>
       </c>
-      <c r="F82" t="s">
+      <c r="E82" t="s">
         <v>21</v>
       </c>
       <c r="G82" s="1">
@@ -1911,7 +1914,7 @@
       <c r="D83" s="1">
         <v>43242.298611111109</v>
       </c>
-      <c r="F83" t="s">
+      <c r="E83" t="s">
         <v>23</v>
       </c>
       <c r="G83" s="1">
@@ -1999,7 +2002,7 @@
       <c r="D88" s="1">
         <v>43244.010416666657</v>
       </c>
-      <c r="F88" t="s">
+      <c r="E88" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="1">
@@ -2019,7 +2022,7 @@
       <c r="D89" s="1">
         <v>43244.479166666657</v>
       </c>
-      <c r="F89" t="s">
+      <c r="E89" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="1">
@@ -2141,7 +2144,7 @@
       <c r="D96" s="1">
         <v>43243.375</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>20</v>
       </c>
       <c r="G96" s="1">
@@ -2161,7 +2164,7 @@
       <c r="D97" s="1">
         <v>43243.375</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>20</v>
       </c>
       <c r="G97" s="1">
@@ -2181,7 +2184,7 @@
       <c r="D98" s="1">
         <v>43245.010416666657</v>
       </c>
-      <c r="F98" t="s">
+      <c r="E98" t="s">
         <v>21</v>
       </c>
       <c r="G98" s="1">
@@ -2201,7 +2204,7 @@
       <c r="D99" s="1">
         <v>43244.010416666657</v>
       </c>
-      <c r="F99" t="s">
+      <c r="E99" t="s">
         <v>21</v>
       </c>
       <c r="G99" s="1">
@@ -2221,7 +2224,7 @@
       <c r="D100" s="1">
         <v>43243.010416666657</v>
       </c>
-      <c r="F100" t="s">
+      <c r="E100" t="s">
         <v>20</v>
       </c>
       <c r="G100" s="1">
@@ -2241,7 +2244,7 @@
       <c r="D101" s="1">
         <v>43242.010416666657</v>
       </c>
-      <c r="F101" t="s">
+      <c r="E101" t="s">
         <v>21</v>
       </c>
       <c r="G101" s="1">
@@ -2261,7 +2264,7 @@
       <c r="D102" s="1">
         <v>43241.010416666657</v>
       </c>
-      <c r="F102" t="s">
+      <c r="E102" t="s">
         <v>21</v>
       </c>
       <c r="G102" s="1">
@@ -2298,7 +2301,7 @@
       <c r="D104" s="1">
         <v>43245.447916666657</v>
       </c>
-      <c r="F104" t="s">
+      <c r="E104" t="s">
         <v>21</v>
       </c>
       <c r="G104" s="1">
@@ -2318,7 +2321,7 @@
       <c r="D105" s="1">
         <v>43244.447916666657</v>
       </c>
-      <c r="F105" t="s">
+      <c r="E105" t="s">
         <v>21</v>
       </c>
       <c r="G105" s="1">
@@ -2338,7 +2341,7 @@
       <c r="D106" s="1">
         <v>43243.447916666657</v>
       </c>
-      <c r="F106" t="s">
+      <c r="E106" t="s">
         <v>21</v>
       </c>
       <c r="G106" s="1">
@@ -2358,7 +2361,7 @@
       <c r="D107" s="1">
         <v>43242.447916666657</v>
       </c>
-      <c r="F107" t="s">
+      <c r="E107" t="s">
         <v>21</v>
       </c>
       <c r="G107" s="1">
@@ -2378,7 +2381,7 @@
       <c r="D108" s="1">
         <v>43241.447916666657</v>
       </c>
-      <c r="F108" t="s">
+      <c r="E108" t="s">
         <v>21</v>
       </c>
       <c r="G108" s="1">
@@ -2415,7 +2418,7 @@
       <c r="D110" s="1">
         <v>43245.479166666657</v>
       </c>
-      <c r="F110" t="s">
+      <c r="E110" t="s">
         <v>21</v>
       </c>
       <c r="G110" s="1">
@@ -2435,7 +2438,7 @@
       <c r="D111" s="1">
         <v>43244.479166666657</v>
       </c>
-      <c r="F111" t="s">
+      <c r="E111" t="s">
         <v>21</v>
       </c>
       <c r="G111" s="1">
@@ -2455,7 +2458,7 @@
       <c r="D112" s="1">
         <v>43243.479166666657</v>
       </c>
-      <c r="F112" t="s">
+      <c r="E112" t="s">
         <v>21</v>
       </c>
       <c r="G112" s="1">
@@ -2475,7 +2478,7 @@
       <c r="D113" s="1">
         <v>43242.479166666657</v>
       </c>
-      <c r="F113" t="s">
+      <c r="E113" t="s">
         <v>21</v>
       </c>
       <c r="G113" s="1">
@@ -2495,7 +2498,7 @@
       <c r="D114" s="1">
         <v>43241.479166666657</v>
       </c>
-      <c r="F114" t="s">
+      <c r="E114" t="s">
         <v>21</v>
       </c>
       <c r="G114" s="1">
@@ -2532,7 +2535,7 @@
       <c r="D116" s="1">
         <v>43244.347222222219</v>
       </c>
-      <c r="F116" t="s">
+      <c r="E116" t="s">
         <v>15</v>
       </c>
       <c r="G116" s="1">
@@ -2552,7 +2555,7 @@
       <c r="D117" s="1">
         <v>43244.34375</v>
       </c>
-      <c r="F117" t="s">
+      <c r="E117" t="s">
         <v>15</v>
       </c>
       <c r="G117" s="1">
@@ -2606,7 +2609,7 @@
       <c r="D120" s="1">
         <v>43243.395833333343</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>20</v>
       </c>
       <c r="G120" s="1">
@@ -2660,7 +2663,7 @@
       <c r="D123" s="1">
         <v>43243.354166666657</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>20</v>
       </c>
       <c r="G123" s="1">
@@ -2765,7 +2768,7 @@
       <c r="D129" s="1">
         <v>43241.145833333343</v>
       </c>
-      <c r="F129" t="s">
+      <c r="E129" t="s">
         <v>15</v>
       </c>
       <c r="G129" s="1">
@@ -2785,7 +2788,7 @@
       <c r="D130" s="1">
         <v>43241.145833333343</v>
       </c>
-      <c r="F130" t="s">
+      <c r="E130" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="1">
@@ -2805,7 +2808,7 @@
       <c r="D131" s="1">
         <v>43241.145833333343</v>
       </c>
-      <c r="F131" t="s">
+      <c r="E131" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="1">
@@ -2825,7 +2828,7 @@
       <c r="D132" s="1">
         <v>43240.375</v>
       </c>
-      <c r="F132" t="s">
+      <c r="E132" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="1">
@@ -2845,7 +2848,7 @@
       <c r="D133" s="1">
         <v>43240.375</v>
       </c>
-      <c r="F133" t="s">
+      <c r="E133" t="s">
         <v>15</v>
       </c>
       <c r="G133" s="1">
@@ -2865,7 +2868,7 @@
       <c r="D134" s="1">
         <v>43240.375</v>
       </c>
-      <c r="F134" t="s">
+      <c r="E134" t="s">
         <v>15</v>
       </c>
       <c r="G134" s="1">
@@ -2885,7 +2888,7 @@
       <c r="D135" s="1">
         <v>43245.375</v>
       </c>
-      <c r="F135" t="s">
+      <c r="E135" t="s">
         <v>23</v>
       </c>
       <c r="G135" s="1">
@@ -2905,7 +2908,7 @@
       <c r="D136" s="1">
         <v>43242.375</v>
       </c>
-      <c r="F136" t="s">
+      <c r="E136" t="s">
         <v>15</v>
       </c>
       <c r="G136" s="1">
@@ -2959,7 +2962,7 @@
       <c r="D139" s="1">
         <v>43241.375</v>
       </c>
-      <c r="F139" t="s">
+      <c r="E139" t="s">
         <v>15</v>
       </c>
       <c r="G139" s="1">
@@ -2979,7 +2982,7 @@
       <c r="D140" s="1">
         <v>43240.375</v>
       </c>
-      <c r="F140" t="s">
+      <c r="E140" t="s">
         <v>15</v>
       </c>
       <c r="G140" s="1">
@@ -2999,7 +3002,7 @@
       <c r="D141" s="1">
         <v>43241.375</v>
       </c>
-      <c r="F141" t="s">
+      <c r="E141" t="s">
         <v>15</v>
       </c>
       <c r="G141" s="1">
@@ -3104,7 +3107,7 @@
       <c r="D147" s="1">
         <v>43245.399305555547</v>
       </c>
-      <c r="F147" t="s">
+      <c r="E147" t="s">
         <v>15</v>
       </c>
       <c r="G147" s="1">
@@ -3124,7 +3127,7 @@
       <c r="D148" s="1">
         <v>43245.397916666669</v>
       </c>
-      <c r="F148" t="s">
+      <c r="E148" t="s">
         <v>15</v>
       </c>
       <c r="G148" s="1">
@@ -3144,7 +3147,7 @@
       <c r="D149" s="1">
         <v>43244.399305555547</v>
       </c>
-      <c r="F149" t="s">
+      <c r="E149" t="s">
         <v>15</v>
       </c>
       <c r="G149" s="1">
@@ -3283,7 +3286,7 @@
       <c r="D157" s="1">
         <v>43245.569444444453</v>
       </c>
-      <c r="F157" t="s">
+      <c r="E157" t="s">
         <v>15</v>
       </c>
       <c r="G157" s="1">
@@ -3303,7 +3306,7 @@
       <c r="D158" s="1">
         <v>43244.569444444453</v>
       </c>
-      <c r="F158" t="s">
+      <c r="E158" t="s">
         <v>15</v>
       </c>
       <c r="G158" s="1">
@@ -3357,7 +3360,7 @@
       <c r="D161" s="1">
         <v>43241.569444444453</v>
       </c>
-      <c r="F161" t="s">
+      <c r="E161" t="s">
         <v>20</v>
       </c>
       <c r="G161" s="1">
@@ -3377,7 +3380,7 @@
       <c r="D162" s="1">
         <v>43245.578472222223</v>
       </c>
-      <c r="F162" t="s">
+      <c r="E162" t="s">
         <v>15</v>
       </c>
       <c r="G162" s="1">
@@ -3431,7 +3434,7 @@
       <c r="D165" s="1">
         <v>43242.578472222223</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>20</v>
       </c>
       <c r="G165" s="1">
@@ -3468,7 +3471,7 @@
       <c r="D167" s="1">
         <v>43245.511111111111</v>
       </c>
-      <c r="F167" t="s">
+      <c r="E167" t="s">
         <v>15</v>
       </c>
       <c r="G167" s="1">
@@ -3488,7 +3491,7 @@
       <c r="D168" s="1">
         <v>43244.511111111111</v>
       </c>
-      <c r="F168" t="s">
+      <c r="E168" t="s">
         <v>15</v>
       </c>
       <c r="G168" s="1">
@@ -3542,7 +3545,7 @@
       <c r="D171" s="1">
         <v>43241.511111111111</v>
       </c>
-      <c r="F171" t="s">
+      <c r="E171" t="s">
         <v>20</v>
       </c>
       <c r="G171" s="1">
@@ -3630,7 +3633,7 @@
       <c r="D176" s="1">
         <v>43240.319444444453</v>
       </c>
-      <c r="F176" t="s">
+      <c r="E176" t="s">
         <v>21</v>
       </c>
       <c r="G176" s="1">
@@ -3735,7 +3738,7 @@
       <c r="D182" s="1">
         <v>43239.864583333343</v>
       </c>
-      <c r="F182" t="s">
+      <c r="E182" t="s">
         <v>20</v>
       </c>
       <c r="G182" s="1">
@@ -3772,7 +3775,7 @@
       <c r="D184" s="1">
         <v>43243.819444444453</v>
       </c>
-      <c r="F184" t="s">
+      <c r="E184" t="s">
         <v>23</v>
       </c>
       <c r="G184" s="1">
@@ -3809,7 +3812,7 @@
       <c r="D186" s="1">
         <v>43241.819444444453</v>
       </c>
-      <c r="F186" t="s">
+      <c r="E186" t="s">
         <v>23</v>
       </c>
       <c r="G186" s="1">
@@ -3863,7 +3866,7 @@
       <c r="D189" s="1">
         <v>43242.708333333343</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>12</v>
       </c>
       <c r="G189" s="1">
@@ -3985,7 +3988,7 @@
       <c r="D196" s="1">
         <v>43241.864583333343</v>
       </c>
-      <c r="F196" t="s">
+      <c r="E196" t="s">
         <v>23</v>
       </c>
       <c r="G196" s="1">
@@ -4005,7 +4008,7 @@
       <c r="D197" s="1">
         <v>43240.364583333343</v>
       </c>
-      <c r="F197" t="s">
+      <c r="E197" t="s">
         <v>21</v>
       </c>
       <c r="G197" s="1">
@@ -4059,7 +4062,7 @@
       <c r="D200" s="1">
         <v>43241.520833333343</v>
       </c>
-      <c r="F200" t="s">
+      <c r="E200" t="s">
         <v>23</v>
       </c>
       <c r="G200" s="1">
@@ -4079,7 +4082,7 @@
       <c r="D201" s="1">
         <v>43240.520833333343</v>
       </c>
-      <c r="F201" t="s">
+      <c r="E201" t="s">
         <v>21</v>
       </c>
       <c r="G201" s="1">
@@ -4167,7 +4170,7 @@
       <c r="D206" s="1">
         <v>43240.270833333343</v>
       </c>
-      <c r="F206" t="s">
+      <c r="E206" t="s">
         <v>21</v>
       </c>
       <c r="G206" s="1">
@@ -4187,7 +4190,7 @@
       <c r="D207" s="1">
         <v>43245.572916666657</v>
       </c>
-      <c r="F207" t="s">
+      <c r="E207" t="s">
         <v>21</v>
       </c>
       <c r="G207" s="1">
@@ -4207,7 +4210,7 @@
       <c r="D208" s="1">
         <v>43244.572916666657</v>
       </c>
-      <c r="F208" t="s">
+      <c r="E208" t="s">
         <v>15</v>
       </c>
       <c r="G208" s="1">
@@ -4227,7 +4230,7 @@
       <c r="D209" s="1">
         <v>43243.572916666657</v>
       </c>
-      <c r="F209" t="s">
+      <c r="E209" t="s">
         <v>21</v>
       </c>
       <c r="G209" s="1">
@@ -4247,7 +4250,7 @@
       <c r="D210" s="1">
         <v>43242.572916666657</v>
       </c>
-      <c r="F210" t="s">
+      <c r="E210" t="s">
         <v>21</v>
       </c>
       <c r="G210" s="1">
@@ -4267,7 +4270,7 @@
       <c r="D211" s="1">
         <v>43241.572916666657</v>
       </c>
-      <c r="F211" t="s">
+      <c r="E211" t="s">
         <v>21</v>
       </c>
       <c r="G211" s="1">
@@ -4287,7 +4290,7 @@
       <c r="D212" s="1">
         <v>43240.572916666657</v>
       </c>
-      <c r="F212" t="s">
+      <c r="E212" t="s">
         <v>21</v>
       </c>
       <c r="G212" s="1">
@@ -4307,7 +4310,7 @@
       <c r="D213" s="1">
         <v>43241.572916666657</v>
       </c>
-      <c r="F213" t="s">
+      <c r="E213" t="s">
         <v>21</v>
       </c>
       <c r="G213" s="1">
@@ -4327,7 +4330,7 @@
       <c r="D214" s="1">
         <v>43245.541666666657</v>
       </c>
-      <c r="F214" t="s">
+      <c r="E214" t="s">
         <v>21</v>
       </c>
       <c r="G214" s="1">
@@ -4347,7 +4350,7 @@
       <c r="D215" s="1">
         <v>43244.541666666657</v>
       </c>
-      <c r="F215" t="s">
+      <c r="E215" t="s">
         <v>21</v>
       </c>
       <c r="G215" s="1">
@@ -4367,7 +4370,7 @@
       <c r="D216" s="1">
         <v>43243.541666666657</v>
       </c>
-      <c r="F216" t="s">
+      <c r="E216" t="s">
         <v>21</v>
       </c>
       <c r="G216" s="1">
@@ -4387,7 +4390,7 @@
       <c r="D217" s="1">
         <v>43242.541666666657</v>
       </c>
-      <c r="F217" t="s">
+      <c r="E217" t="s">
         <v>21</v>
       </c>
       <c r="G217" s="1">
@@ -4407,7 +4410,7 @@
       <c r="D218" s="1">
         <v>43241.541666666657</v>
       </c>
-      <c r="F218" t="s">
+      <c r="E218" t="s">
         <v>21</v>
       </c>
       <c r="G218" s="1">
@@ -4427,7 +4430,7 @@
       <c r="D219" s="1">
         <v>43240.541666666657</v>
       </c>
-      <c r="F219" t="s">
+      <c r="E219" t="s">
         <v>21</v>
       </c>
       <c r="G219" s="1">
@@ -4447,7 +4450,7 @@
       <c r="D220" s="1">
         <v>43245.010416666657</v>
       </c>
-      <c r="F220" t="s">
+      <c r="E220" t="s">
         <v>15</v>
       </c>
       <c r="G220" s="1">
@@ -4467,7 +4470,7 @@
       <c r="D221" s="1">
         <v>43244.010416666657</v>
       </c>
-      <c r="F221" t="s">
+      <c r="E221" t="s">
         <v>21</v>
       </c>
       <c r="G221" s="1">
@@ -4521,7 +4524,7 @@
       <c r="D224" s="1">
         <v>43241.010416666657</v>
       </c>
-      <c r="F224" t="s">
+      <c r="E224" t="s">
         <v>21</v>
       </c>
       <c r="G224" s="1">
@@ -4558,7 +4561,7 @@
       <c r="D226" s="1">
         <v>43245.479166666657</v>
       </c>
-      <c r="F226" t="s">
+      <c r="E226" t="s">
         <v>15</v>
       </c>
       <c r="G226" s="1">
@@ -4578,7 +4581,7 @@
       <c r="D227" s="1">
         <v>43244.479166666657</v>
       </c>
-      <c r="F227" t="s">
+      <c r="E227" t="s">
         <v>21</v>
       </c>
       <c r="G227" s="1">
@@ -4598,7 +4601,7 @@
       <c r="D228" s="1">
         <v>43243.479166666657</v>
       </c>
-      <c r="F228" t="s">
+      <c r="E228" t="s">
         <v>20</v>
       </c>
       <c r="G228" s="1">
@@ -4635,7 +4638,7 @@
       <c r="D230" s="1">
         <v>43241.479166666657</v>
       </c>
-      <c r="F230" t="s">
+      <c r="E230" t="s">
         <v>21</v>
       </c>
       <c r="G230" s="1">
@@ -4672,7 +4675,7 @@
       <c r="D232" s="1">
         <v>43245.486805555571</v>
       </c>
-      <c r="F232" t="s">
+      <c r="E232" t="s">
         <v>15</v>
       </c>
       <c r="G232" s="1">
@@ -4743,7 +4746,7 @@
       <c r="D236" s="1">
         <v>43241.491666666669</v>
       </c>
-      <c r="F236" t="s">
+      <c r="E236" t="s">
         <v>20</v>
       </c>
       <c r="G236" s="1">
@@ -4797,7 +4800,7 @@
       <c r="D239" s="1">
         <v>43241.479166666657</v>
       </c>
-      <c r="F239" t="s">
+      <c r="E239" t="s">
         <v>23</v>
       </c>
       <c r="G239" s="1">
@@ -4817,7 +4820,7 @@
       <c r="D240" s="1">
         <v>43242.479166666657</v>
       </c>
-      <c r="F240" t="s">
+      <c r="E240" t="s">
         <v>21</v>
       </c>
       <c r="G240" s="1">
@@ -4837,7 +4840,7 @@
       <c r="D241" s="1">
         <v>43243.479166666657</v>
       </c>
-      <c r="F241" t="s">
+      <c r="E241" t="s">
         <v>21</v>
       </c>
       <c r="G241" s="1">
@@ -4857,7 +4860,7 @@
       <c r="D242" s="1">
         <v>43244.479166666657</v>
       </c>
-      <c r="F242" t="s">
+      <c r="E242" t="s">
         <v>21</v>
       </c>
       <c r="G242" s="1">
@@ -4877,7 +4880,7 @@
       <c r="D243" s="1">
         <v>43245.479166666657</v>
       </c>
-      <c r="F243" t="s">
+      <c r="E243" t="s">
         <v>21</v>
       </c>
       <c r="G243" s="1">
@@ -4897,7 +4900,7 @@
       <c r="D244" s="1">
         <v>43245.447916666657</v>
       </c>
-      <c r="F244" t="s">
+      <c r="E244" t="s">
         <v>21</v>
       </c>
       <c r="G244" s="1">
@@ -4917,7 +4920,7 @@
       <c r="D245" s="1">
         <v>43244.447916666657</v>
       </c>
-      <c r="F245" t="s">
+      <c r="E245" t="s">
         <v>21</v>
       </c>
       <c r="G245" s="1">
@@ -4937,7 +4940,7 @@
       <c r="D246" s="1">
         <v>43243.447916666657</v>
       </c>
-      <c r="F246" t="s">
+      <c r="E246" t="s">
         <v>21</v>
       </c>
       <c r="G246" s="1">
@@ -4957,7 +4960,7 @@
       <c r="D247" s="1">
         <v>43242.447916666657</v>
       </c>
-      <c r="F247" t="s">
+      <c r="E247" t="s">
         <v>21</v>
       </c>
       <c r="G247" s="1">
@@ -5011,7 +5014,7 @@
       <c r="D250" s="1">
         <v>43245.416666666657</v>
       </c>
-      <c r="F250" t="s">
+      <c r="E250" t="s">
         <v>21</v>
       </c>
       <c r="G250" s="1">
@@ -5031,7 +5034,7 @@
       <c r="D251" s="1">
         <v>43244.416666666657</v>
       </c>
-      <c r="F251" t="s">
+      <c r="E251" t="s">
         <v>21</v>
       </c>
       <c r="G251" s="1">
@@ -5051,7 +5054,7 @@
       <c r="D252" s="1">
         <v>43243.416666666657</v>
       </c>
-      <c r="F252" t="s">
+      <c r="E252" t="s">
         <v>21</v>
       </c>
       <c r="G252" s="1">
@@ -5071,7 +5074,7 @@
       <c r="D253" s="1">
         <v>43242.416666666657</v>
       </c>
-      <c r="F253" t="s">
+      <c r="E253" t="s">
         <v>21</v>
       </c>
       <c r="G253" s="1">
@@ -5108,7 +5111,7 @@
       <c r="D255" s="1">
         <v>43245.491666666669</v>
       </c>
-      <c r="F255" t="s">
+      <c r="E255" t="s">
         <v>15</v>
       </c>
       <c r="G255" s="1">
@@ -5167,6 +5170,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B258" xr:uid="{BE931607-383C-4A21-8AD1-0D4840D023AC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>